--- a/Code/Results/Cases/Case_3_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34685370331909</v>
+        <v>18.73820516028269</v>
       </c>
       <c r="C2">
-        <v>6.307088892902188</v>
+        <v>5.745154400776977</v>
       </c>
       <c r="D2">
-        <v>5.648900060753417</v>
+        <v>8.209324402614632</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.36913093123007</v>
+        <v>41.05517398452946</v>
       </c>
       <c r="G2">
-        <v>2.123635061510009</v>
+        <v>3.726632471681413</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.72170200379407</v>
+        <v>14.68741086150565</v>
       </c>
       <c r="L2">
-        <v>8.085845736385242</v>
+        <v>10.91131242402436</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.58299650900797</v>
+        <v>23.44912315802864</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.30191834175089</v>
+        <v>18.53954331618607</v>
       </c>
       <c r="C3">
-        <v>6.026126045366633</v>
+        <v>5.641558213594811</v>
       </c>
       <c r="D3">
-        <v>5.718859016665612</v>
+        <v>8.220266429876469</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.26244846405483</v>
+        <v>40.88741461769141</v>
       </c>
       <c r="G3">
-        <v>2.132647143308194</v>
+        <v>3.729835017758365</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.96125576683692</v>
+        <v>14.55737814277456</v>
       </c>
       <c r="L3">
-        <v>7.810077719780974</v>
+        <v>10.89162186166533</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.6602939541338</v>
+        <v>23.47735831792736</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.64206956685653</v>
+        <v>18.42188522008228</v>
       </c>
       <c r="C4">
-        <v>5.847787151805468</v>
+        <v>5.57589823737071</v>
       </c>
       <c r="D4">
-        <v>5.761925062342737</v>
+        <v>8.227174631837373</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.59292884992882</v>
+        <v>40.79266645356797</v>
       </c>
       <c r="G4">
-        <v>2.138321253843904</v>
+        <v>3.731903849753103</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.4821172802182</v>
+        <v>14.48106123731799</v>
       </c>
       <c r="L4">
-        <v>7.641937018867568</v>
+        <v>10.88181371299923</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.71313859281661</v>
+        <v>23.49651954655245</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.36884144222382</v>
+        <v>18.37507896468263</v>
       </c>
       <c r="C5">
-        <v>5.773666533849746</v>
+        <v>5.548639000161221</v>
       </c>
       <c r="D5">
-        <v>5.779522054377424</v>
+        <v>8.230037737192097</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.3228129290354</v>
+        <v>40.75615402430899</v>
       </c>
       <c r="G5">
-        <v>2.14067061456938</v>
+        <v>3.732772771793859</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.28398968329679</v>
+        <v>14.45087949460958</v>
       </c>
       <c r="L5">
-        <v>7.573790000924008</v>
+        <v>10.87839300601252</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.73597516299541</v>
+        <v>23.50478644137936</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.32321908067132</v>
+        <v>18.3673772207608</v>
       </c>
       <c r="C6">
-        <v>5.761272251173262</v>
+        <v>5.544082699659052</v>
       </c>
       <c r="D6">
-        <v>5.782447413819725</v>
+        <v>8.230516057210261</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.27813094082747</v>
+        <v>40.75021848029454</v>
       </c>
       <c r="G6">
-        <v>2.14106301465371</v>
+        <v>3.732918620016538</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.25092384221881</v>
+        <v>14.44592418170364</v>
       </c>
       <c r="L6">
-        <v>7.562498988395337</v>
+        <v>10.87785986121472</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.73984435411056</v>
+        <v>23.50618683856235</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.63840188113042</v>
+        <v>18.42124928801841</v>
       </c>
       <c r="C7">
-        <v>5.846793358722911</v>
+        <v>5.575532624927595</v>
       </c>
       <c r="D7">
-        <v>5.762162165720581</v>
+        <v>8.227213050202369</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.58927467870802</v>
+        <v>40.79216551167266</v>
       </c>
       <c r="G7">
-        <v>2.138352785642118</v>
+        <v>3.73191546352658</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.47945660520061</v>
+        <v>14.48065043798824</v>
       </c>
       <c r="L7">
-        <v>7.641016356291342</v>
+        <v>10.88176524436899</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.71344136875912</v>
+        <v>23.49662918065343</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.99048242589714</v>
+        <v>18.66884272967786</v>
       </c>
       <c r="C8">
-        <v>6.211430876420771</v>
+        <v>5.709868168578104</v>
       </c>
       <c r="D8">
-        <v>5.673010949864449</v>
+        <v>8.213057977833751</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.98559236319878</v>
+        <v>40.99563084134433</v>
       </c>
       <c r="G8">
-        <v>2.126714322464415</v>
+        <v>3.72771550088629</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.46214130994648</v>
+        <v>14.64186396497997</v>
       </c>
       <c r="L8">
-        <v>7.990558086373295</v>
+        <v>10.90405106892609</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.60849880910912</v>
+        <v>23.45847973742581</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.4890260256486</v>
+        <v>19.18618435575958</v>
       </c>
       <c r="C9">
-        <v>6.879893445725918</v>
+        <v>5.956462061966145</v>
       </c>
       <c r="D9">
-        <v>5.498115547345512</v>
+        <v>8.186793918473374</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.79515422548631</v>
+        <v>41.45905761860767</v>
       </c>
       <c r="G9">
-        <v>2.104921867131996</v>
+        <v>3.720288090491606</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.49757186761948</v>
+        <v>14.98447282718697</v>
       </c>
       <c r="L9">
-        <v>8.682536400812618</v>
+        <v>10.96573544831491</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.44798161816917</v>
+        <v>23.39816136482858</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.22482828561211</v>
+        <v>19.58223273768274</v>
       </c>
       <c r="C10">
-        <v>7.34281427013358</v>
+        <v>6.126674010610166</v>
       </c>
       <c r="D10">
-        <v>5.368123271711442</v>
+        <v>8.168391431333873</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.8948138311269</v>
+        <v>41.83720673115997</v>
       </c>
       <c r="G10">
-        <v>2.089408789756244</v>
+        <v>3.715318249452951</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.00830086958765</v>
+        <v>15.25022580533348</v>
       </c>
       <c r="L10">
-        <v>9.191836836019476</v>
+        <v>11.02182265185929</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.36157684539333</v>
+        <v>23.36270083490989</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.0277900301219</v>
+        <v>19.76511756436103</v>
       </c>
       <c r="C11">
-        <v>7.547518612711679</v>
+        <v>6.201595103654616</v>
       </c>
       <c r="D11">
-        <v>5.308299316384112</v>
+        <v>8.160210015799523</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>40.85684951570162</v>
+        <v>42.01702374312722</v>
       </c>
       <c r="G11">
-        <v>2.082427166798094</v>
+        <v>3.713161839362581</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.66684311351423</v>
+        <v>15.37370252336777</v>
       </c>
       <c r="L11">
-        <v>9.423313322856876</v>
+        <v>11.04962519895157</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.33010387277096</v>
+        <v>23.34849615447066</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.34352421095593</v>
+        <v>19.83469888434831</v>
       </c>
       <c r="C12">
-        <v>7.624220187343185</v>
+        <v>6.229594704854659</v>
       </c>
       <c r="D12">
-        <v>5.285512677157889</v>
+        <v>8.157138972526127</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.22213034403043</v>
+        <v>42.08620005179786</v>
       </c>
       <c r="G12">
-        <v>2.079791228775138</v>
+        <v>3.712360178159141</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.91224272503975</v>
+        <v>15.42079117964347</v>
       </c>
       <c r="L12">
-        <v>9.510920133282022</v>
+        <v>11.06047725798473</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.31940571915561</v>
+        <v>23.34339458904645</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.27573070332229</v>
+        <v>19.81969978964265</v>
       </c>
       <c r="C13">
-        <v>7.607736817700691</v>
+        <v>6.223581168102838</v>
       </c>
       <c r="D13">
-        <v>5.290426655133156</v>
+        <v>8.157799175947117</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>41.14341663034903</v>
+        <v>42.07125412321601</v>
       </c>
       <c r="G13">
-        <v>2.080358627011182</v>
+        <v>3.71253216786001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.85956581623953</v>
+        <v>15.41063574167523</v>
       </c>
       <c r="L13">
-        <v>9.492054732268137</v>
+        <v>11.05812575762011</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.32165389933628</v>
+        <v>23.344480956782</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.05385850934326</v>
+        <v>19.7708358796479</v>
       </c>
       <c r="C14">
-        <v>7.55384503448233</v>
+        <v>6.203906148900031</v>
       </c>
       <c r="D14">
-        <v>5.306427507399888</v>
+        <v>8.159956817825147</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>40.88688163857702</v>
+        <v>42.0226934258495</v>
       </c>
       <c r="G14">
-        <v>2.082210167490535</v>
+        <v>3.713095587603292</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.68711106110131</v>
+        <v>15.37757014318436</v>
       </c>
       <c r="L14">
-        <v>9.430521812110854</v>
+        <v>11.05051154554183</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.3291987066144</v>
+        <v>23.3480708829988</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.91735090210501</v>
+        <v>19.74094597674416</v>
       </c>
       <c r="C15">
-        <v>7.520729616216369</v>
+        <v>6.191805964098209</v>
       </c>
       <c r="D15">
-        <v>5.316210170834419</v>
+        <v>8.161281955549349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>40.72987463000287</v>
+        <v>41.99308855723273</v>
       </c>
       <c r="G15">
-        <v>2.083345217871504</v>
+        <v>3.713442639487114</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.58096445017418</v>
+        <v>15.35735835661123</v>
       </c>
       <c r="L15">
-        <v>9.392824520088002</v>
+        <v>11.04588963214596</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.33398194719537</v>
+        <v>23.35030595926289</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.17422147319535</v>
+        <v>19.57033001776807</v>
       </c>
       <c r="C16">
-        <v>7.329320380654971</v>
+        <v>6.121726329386091</v>
       </c>
       <c r="D16">
-        <v>5.37201624930883</v>
+        <v>8.168929908547641</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>39.8320788816001</v>
+        <v>41.82560897094283</v>
       </c>
       <c r="G16">
-        <v>2.089866323571742</v>
+        <v>3.71546126914228</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.96469869077038</v>
+        <v>15.24220482511934</v>
       </c>
       <c r="L16">
-        <v>9.176703234854404</v>
+        <v>11.02005129980108</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.36379907260762</v>
+        <v>23.36366794547135</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.72825415850881</v>
+        <v>19.46631356496338</v>
       </c>
       <c r="C17">
-        <v>7.210409232845459</v>
+        <v>6.078084328037646</v>
       </c>
       <c r="D17">
-        <v>5.406052089883896</v>
+        <v>8.173670167415599</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.28304895502646</v>
+        <v>41.72483619916292</v>
       </c>
       <c r="G17">
-        <v>2.093884084626912</v>
+        <v>3.716726308873498</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.57939260037755</v>
+        <v>15.17219478499251</v>
       </c>
       <c r="L17">
-        <v>9.044049243980407</v>
+        <v>11.00478282167815</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.3841606303836</v>
+        <v>23.37235880711099</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.46966875720635</v>
+        <v>19.4067459687599</v>
       </c>
       <c r="C18">
-        <v>7.141458781626045</v>
+        <v>6.05274701328506</v>
       </c>
       <c r="D18">
-        <v>5.425565871308565</v>
+        <v>8.176414533745293</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.96790741225774</v>
+        <v>41.66761044893127</v>
       </c>
       <c r="G18">
-        <v>2.096202283503009</v>
+        <v>3.7174637576693</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.35506394636551</v>
+        <v>15.13217259463295</v>
       </c>
       <c r="L18">
-        <v>8.967730973414408</v>
+        <v>10.99621651283099</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.39660316782617</v>
+        <v>23.37753886735289</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.38175944145163</v>
+        <v>19.38662400956401</v>
       </c>
       <c r="C19">
-        <v>7.118017105521179</v>
+        <v>6.044128105247174</v>
       </c>
       <c r="D19">
-        <v>5.432163090300678</v>
+        <v>8.177346809663243</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.8613181155216</v>
+        <v>41.64836232301263</v>
       </c>
       <c r="G19">
-        <v>2.096988523570108</v>
+        <v>3.717715136384519</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.27864017980353</v>
+        <v>15.11866521430566</v>
       </c>
       <c r="L19">
-        <v>8.941888413434942</v>
+        <v>10.99335330849103</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.40093887459396</v>
+        <v>23.37932387361545</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.77594303783668</v>
+        <v>19.47735986073889</v>
       </c>
       <c r="C20">
-        <v>7.223124873915748</v>
+        <v>6.082754555084134</v>
       </c>
       <c r="D20">
-        <v>5.4024356403249</v>
+        <v>8.1731637084672</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.3414275397174</v>
+        <v>41.73548771595047</v>
       </c>
       <c r="G20">
-        <v>2.093455653339573</v>
+        <v>3.716590626359448</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.6206886016085</v>
+        <v>15.17962233626046</v>
       </c>
       <c r="L20">
-        <v>9.058172654286684</v>
+        <v>11.00638588775874</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.3819167946069</v>
+        <v>23.37141488263744</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.1191534364865</v>
+        <v>19.78518003693358</v>
       </c>
       <c r="C21">
-        <v>7.569696202183806</v>
+        <v>6.209695339072065</v>
       </c>
       <c r="D21">
-        <v>5.301731551871177</v>
+        <v>8.159322333004903</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>40.96220543256174</v>
+        <v>42.03692778159614</v>
       </c>
       <c r="G21">
-        <v>2.0816661374858</v>
+        <v>3.712929693215165</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.73787184264537</v>
+        <v>15.38727366347059</v>
       </c>
       <c r="L21">
-        <v>9.448596911254786</v>
+        <v>11.05273927896665</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.3269487073886</v>
+        <v>23.34700890179149</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.02961315135258</v>
+        <v>19.98823359444532</v>
       </c>
       <c r="C22">
-        <v>7.791468157025755</v>
+        <v>6.290489336304926</v>
       </c>
       <c r="D22">
-        <v>5.235124559294507</v>
+        <v>8.150433934779103</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.02721890160709</v>
+        <v>42.24023310528696</v>
       </c>
       <c r="G22">
-        <v>2.074005143052207</v>
+        <v>3.710624012917434</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.44492061267545</v>
+        <v>15.52489425583058</v>
       </c>
       <c r="L22">
-        <v>9.703481772372104</v>
+        <v>11.08491875594793</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.29818584159718</v>
+        <v>23.33267549378715</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.5461170057888</v>
+        <v>19.87970968573459</v>
       </c>
       <c r="C23">
-        <v>7.673524804352559</v>
+        <v>6.247569842012543</v>
       </c>
       <c r="D23">
-        <v>5.270758325493842</v>
+        <v>8.155163484843559</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.45826469679955</v>
+        <v>42.13116192869425</v>
       </c>
       <c r="G23">
-        <v>2.078090994251239</v>
+        <v>3.71184667062434</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.06961508893512</v>
+        <v>15.45128251971737</v>
       </c>
       <c r="L23">
-        <v>9.567472959325137</v>
+        <v>11.06757332996164</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.31284816124107</v>
+        <v>23.34017738530985</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.75438972709297</v>
+        <v>19.47236510022248</v>
       </c>
       <c r="C24">
-        <v>7.21737796264073</v>
+        <v>6.080643913843383</v>
       </c>
       <c r="D24">
-        <v>5.404070802505522</v>
+        <v>8.173392618941339</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.31503301293913</v>
+        <v>41.73066995120331</v>
       </c>
       <c r="G24">
-        <v>2.093649320942783</v>
+        <v>3.716651936768087</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.6020274464355</v>
+        <v>15.17626362854267</v>
       </c>
       <c r="L24">
-        <v>9.051787626232391</v>
+        <v>11.00566048165589</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.38292894597575</v>
+        <v>23.37184105908701</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.83035990722057</v>
+        <v>19.04317373060362</v>
       </c>
       <c r="C25">
-        <v>6.704056816383937</v>
+        <v>5.891629103947133</v>
       </c>
       <c r="D25">
-        <v>5.545578882728458</v>
+        <v>8.193740864555108</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.02841775665028</v>
+        <v>41.32694696616655</v>
       </c>
       <c r="G25">
-        <v>2.110719728430123</v>
+        <v>3.722211439296397</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.91485893576303</v>
+        <v>14.88916606399816</v>
       </c>
       <c r="L25">
-        <v>8.494997123762158</v>
+        <v>10.94714130711607</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.48617749242699</v>
+        <v>23.41292543233441</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_143/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_143/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.73820516028269</v>
+        <v>18.34685370331908</v>
       </c>
       <c r="C2">
-        <v>5.745154400776977</v>
+        <v>6.307088892902073</v>
       </c>
       <c r="D2">
-        <v>8.209324402614632</v>
+        <v>5.648900060753419</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.05517398452946</v>
+        <v>35.36913093123015</v>
       </c>
       <c r="G2">
-        <v>3.726632471681413</v>
+        <v>2.123635061510143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.68741086150565</v>
+        <v>13.72170200379406</v>
       </c>
       <c r="L2">
-        <v>10.91131242402436</v>
+        <v>8.085845736385219</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>23.44912315802864</v>
+        <v>16.58299650900811</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.53954331618607</v>
+        <v>17.30191834175089</v>
       </c>
       <c r="C3">
-        <v>5.641558213594811</v>
+        <v>6.026126045366651</v>
       </c>
       <c r="D3">
-        <v>8.220266429876469</v>
+        <v>5.718859016665478</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>40.88741461769141</v>
+        <v>34.26244846405478</v>
       </c>
       <c r="G3">
-        <v>3.729835017758365</v>
+        <v>2.132647143308062</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.55737814277456</v>
+        <v>12.96125576683693</v>
       </c>
       <c r="L3">
-        <v>10.89162186166533</v>
+        <v>7.810077719780899</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>23.47735831792736</v>
+        <v>16.66029395413368</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.42188522008228</v>
+        <v>16.64206956685657</v>
       </c>
       <c r="C4">
-        <v>5.57589823737071</v>
+        <v>5.847787151805356</v>
       </c>
       <c r="D4">
-        <v>8.227174631837373</v>
+        <v>5.761925062343062</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>40.79266645356797</v>
+        <v>33.59292884992901</v>
       </c>
       <c r="G4">
-        <v>3.731903849753103</v>
+        <v>2.138321253844306</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.48106123731799</v>
+        <v>12.48211728021825</v>
       </c>
       <c r="L4">
-        <v>10.88181371299923</v>
+        <v>7.641937018867587</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.49651954655245</v>
+        <v>16.71313859281673</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37507896468263</v>
+        <v>16.36884144222379</v>
       </c>
       <c r="C5">
-        <v>5.548639000161221</v>
+        <v>5.773666533849866</v>
       </c>
       <c r="D5">
-        <v>8.230037737192097</v>
+        <v>5.779522054377296</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>40.75615402430899</v>
+        <v>33.32281292903531</v>
       </c>
       <c r="G5">
-        <v>3.732772771793859</v>
+        <v>2.14067061456938</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.45087949460958</v>
+        <v>12.28398968329676</v>
       </c>
       <c r="L5">
-        <v>10.87839300601252</v>
+        <v>7.573790000924059</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>23.50478644137936</v>
+        <v>16.73597516299542</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3673772207608</v>
+        <v>16.32321908067138</v>
       </c>
       <c r="C6">
-        <v>5.544082699659052</v>
+        <v>5.761272251173032</v>
       </c>
       <c r="D6">
-        <v>8.230516057210261</v>
+        <v>5.782447413819787</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>40.75021848029454</v>
+        <v>33.27813094082781</v>
       </c>
       <c r="G6">
-        <v>3.732918620016538</v>
+        <v>2.141063014653577</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.44592418170364</v>
+        <v>12.25092384221886</v>
       </c>
       <c r="L6">
-        <v>10.87785986121472</v>
+        <v>7.5624989883953</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>23.50618683856235</v>
+        <v>16.73984435411068</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.42124928801841</v>
+        <v>16.63840188113042</v>
       </c>
       <c r="C7">
-        <v>5.575532624927595</v>
+        <v>5.846793358722806</v>
       </c>
       <c r="D7">
-        <v>8.227213050202369</v>
+        <v>5.762162165720648</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>40.79216551167266</v>
+        <v>33.58927467870803</v>
       </c>
       <c r="G7">
-        <v>3.73191546352658</v>
+        <v>2.138352785641985</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.48065043798824</v>
+        <v>12.47945660520062</v>
       </c>
       <c r="L7">
-        <v>10.88176524436899</v>
+        <v>7.641016356291376</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.49662918065343</v>
+        <v>16.71344136875917</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.66884272967786</v>
+        <v>17.99048242589719</v>
       </c>
       <c r="C8">
-        <v>5.709868168578104</v>
+        <v>6.211430876420764</v>
       </c>
       <c r="D8">
-        <v>8.213057977833751</v>
+        <v>5.673010949864781</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.99563084134433</v>
+        <v>34.98559236319892</v>
       </c>
       <c r="G8">
-        <v>3.72771550088629</v>
+        <v>2.126714322464547</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.64186396497997</v>
+        <v>13.46214130994651</v>
       </c>
       <c r="L8">
-        <v>10.90405106892609</v>
+        <v>7.990558086373281</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>23.45847973742581</v>
+        <v>16.60849880910918</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.18618435575958</v>
+        <v>20.48902602564861</v>
       </c>
       <c r="C9">
-        <v>5.956462061966145</v>
+        <v>6.879893445726158</v>
       </c>
       <c r="D9">
-        <v>8.186793918473374</v>
+        <v>5.498115547345651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.45905761860767</v>
+        <v>37.79515422548631</v>
       </c>
       <c r="G9">
-        <v>3.720288090491606</v>
+        <v>2.104921867131994</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.98447282718697</v>
+        <v>15.49757186761952</v>
       </c>
       <c r="L9">
-        <v>10.96573544831491</v>
+        <v>8.682536400812602</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.39816136482858</v>
+        <v>16.44798161816928</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.58223273768274</v>
+        <v>22.22482828561211</v>
       </c>
       <c r="C10">
-        <v>6.126674010610166</v>
+        <v>7.34281427013349</v>
       </c>
       <c r="D10">
-        <v>8.168391431333873</v>
+        <v>5.36812327171145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.83720673115997</v>
+        <v>39.89481383112674</v>
       </c>
       <c r="G10">
-        <v>3.715318249452951</v>
+        <v>2.089408789756513</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.25022580533348</v>
+        <v>17.0083008695877</v>
       </c>
       <c r="L10">
-        <v>11.02182265185929</v>
+        <v>9.191836836019478</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>23.36270083490989</v>
+        <v>16.36157684539324</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.76511756436103</v>
+        <v>23.02779003012187</v>
       </c>
       <c r="C11">
-        <v>6.201595103654616</v>
+        <v>7.547518612711568</v>
       </c>
       <c r="D11">
-        <v>8.160210015799523</v>
+        <v>5.308299316384249</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>42.01702374312722</v>
+        <v>40.85684951570163</v>
       </c>
       <c r="G11">
-        <v>3.713161839362581</v>
+        <v>2.08242716679783</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.37370252336777</v>
+        <v>17.66684311351419</v>
       </c>
       <c r="L11">
-        <v>11.04962519895157</v>
+        <v>9.423313322856899</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>23.34849615447066</v>
+        <v>16.33010387277094</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.83469888434831</v>
+        <v>23.34352421095593</v>
       </c>
       <c r="C12">
-        <v>6.229594704854659</v>
+        <v>7.624220187343286</v>
       </c>
       <c r="D12">
-        <v>8.157138972526127</v>
+        <v>5.285512677157951</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.08620005179786</v>
+        <v>41.22213034403035</v>
       </c>
       <c r="G12">
-        <v>3.712360178159141</v>
+        <v>2.079791228774872</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.42079117964347</v>
+        <v>17.91224272503976</v>
       </c>
       <c r="L12">
-        <v>11.06047725798473</v>
+        <v>9.510920133282005</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>23.34339458904645</v>
+        <v>16.31940571915558</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.81969978964265</v>
+        <v>23.27573070332227</v>
       </c>
       <c r="C13">
-        <v>6.223581168102838</v>
+        <v>7.607736817700609</v>
       </c>
       <c r="D13">
-        <v>8.157799175947117</v>
+        <v>5.290426655133288</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.07125412321601</v>
+        <v>41.14341663034905</v>
       </c>
       <c r="G13">
-        <v>3.71253216786001</v>
+        <v>2.080358627011313</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.41063574167523</v>
+        <v>17.85956581623955</v>
       </c>
       <c r="L13">
-        <v>11.05812575762011</v>
+        <v>9.492054732268127</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>23.344480956782</v>
+        <v>16.32165389933635</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.7708358796479</v>
+        <v>23.05385850934324</v>
       </c>
       <c r="C14">
-        <v>6.203906148900031</v>
+        <v>7.55384503448244</v>
       </c>
       <c r="D14">
-        <v>8.159956817825147</v>
+        <v>5.306427507400016</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>42.0226934258495</v>
+        <v>40.88688163857697</v>
       </c>
       <c r="G14">
-        <v>3.713095587603292</v>
+        <v>2.082210167490404</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.37757014318436</v>
+        <v>17.68711106110129</v>
       </c>
       <c r="L14">
-        <v>11.05051154554183</v>
+        <v>9.430521812110841</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>23.3480708829988</v>
+        <v>16.32919870661437</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.74094597674416</v>
+        <v>22.91735090210496</v>
       </c>
       <c r="C15">
-        <v>6.191805964098209</v>
+        <v>7.520729616216249</v>
       </c>
       <c r="D15">
-        <v>8.161281955549349</v>
+        <v>5.316210170834541</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.99308855723273</v>
+        <v>40.72987463000288</v>
       </c>
       <c r="G15">
-        <v>3.713442639487114</v>
+        <v>2.083345217871635</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.35735835661123</v>
+        <v>17.5809644501741</v>
       </c>
       <c r="L15">
-        <v>11.04588963214596</v>
+        <v>9.392824520088014</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>23.35030595926289</v>
+        <v>16.33398194719538</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.57033001776807</v>
+        <v>22.17422147319536</v>
       </c>
       <c r="C16">
-        <v>6.121726329386091</v>
+        <v>7.329320380655065</v>
       </c>
       <c r="D16">
-        <v>8.168929908547641</v>
+        <v>5.372016249308765</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.82560897094283</v>
+        <v>39.83207888160007</v>
       </c>
       <c r="G16">
-        <v>3.71546126914228</v>
+        <v>2.08986632357188</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.24220482511934</v>
+        <v>16.96469869077044</v>
       </c>
       <c r="L16">
-        <v>11.02005129980108</v>
+        <v>9.17670323485441</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23.36366794547135</v>
+        <v>16.36379907260761</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.46631356496338</v>
+        <v>21.72825415850881</v>
       </c>
       <c r="C17">
-        <v>6.078084328037646</v>
+        <v>7.210409232845355</v>
       </c>
       <c r="D17">
-        <v>8.173670167415599</v>
+        <v>5.406052089883766</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.72483619916292</v>
+        <v>39.28304895502648</v>
       </c>
       <c r="G17">
-        <v>3.716726308873498</v>
+        <v>2.093884084626512</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.17219478499251</v>
+        <v>16.57939260037756</v>
       </c>
       <c r="L17">
-        <v>11.00478282167815</v>
+        <v>9.044049243980403</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>23.37235880711099</v>
+        <v>16.38416063038357</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.4067459687599</v>
+        <v>21.46966875720634</v>
       </c>
       <c r="C18">
-        <v>6.05274701328506</v>
+        <v>7.141458781625929</v>
       </c>
       <c r="D18">
-        <v>8.176414533745293</v>
+        <v>5.425565871308626</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.66761044893127</v>
+        <v>38.96790741225772</v>
       </c>
       <c r="G18">
-        <v>3.7174637576693</v>
+        <v>2.096202283502876</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.13217259463295</v>
+        <v>16.35506394636549</v>
       </c>
       <c r="L18">
-        <v>10.99621651283099</v>
+        <v>8.967730973414415</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>23.37753886735289</v>
+        <v>16.39660316782617</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.38662400956401</v>
+        <v>21.38175944145168</v>
       </c>
       <c r="C19">
-        <v>6.044128105247174</v>
+        <v>7.118017105521249</v>
       </c>
       <c r="D19">
-        <v>8.177346809663243</v>
+        <v>5.432163090300608</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.64836232301263</v>
+        <v>38.86131811552151</v>
       </c>
       <c r="G19">
-        <v>3.717715136384519</v>
+        <v>2.096988523570241</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.11866521430566</v>
+        <v>16.27864017980361</v>
       </c>
       <c r="L19">
-        <v>10.99335330849103</v>
+        <v>8.941888413434919</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>23.37932387361545</v>
+        <v>16.40093887459388</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.47735986073889</v>
+        <v>21.77594303783666</v>
       </c>
       <c r="C20">
-        <v>6.082754555084134</v>
+        <v>7.223124873915747</v>
       </c>
       <c r="D20">
-        <v>8.1731637084672</v>
+        <v>5.402435640325028</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.73548771595047</v>
+        <v>39.34142753971741</v>
       </c>
       <c r="G20">
-        <v>3.716590626359448</v>
+        <v>2.093455653339045</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.17962233626046</v>
+        <v>16.62068860160847</v>
       </c>
       <c r="L20">
-        <v>11.00638588775874</v>
+        <v>9.058172654286686</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>23.37141488263744</v>
+        <v>16.38191679460692</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.78518003693358</v>
+        <v>23.1191534364865</v>
       </c>
       <c r="C21">
-        <v>6.209695339072065</v>
+        <v>7.569696202183683</v>
       </c>
       <c r="D21">
-        <v>8.159322333004903</v>
+        <v>5.301731551871234</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>42.03692778159614</v>
+        <v>40.96220543256174</v>
       </c>
       <c r="G21">
-        <v>3.712929693215165</v>
+        <v>2.081666137485669</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.38727366347059</v>
+        <v>17.73787184264533</v>
       </c>
       <c r="L21">
-        <v>11.05273927896665</v>
+        <v>9.448596911254832</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>23.34700890179149</v>
+        <v>16.32694870738862</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.98823359444532</v>
+        <v>24.02961315135263</v>
       </c>
       <c r="C22">
-        <v>6.290489336304926</v>
+        <v>7.791468157025776</v>
       </c>
       <c r="D22">
-        <v>8.150433934779103</v>
+        <v>5.235124559294642</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.24023310528696</v>
+        <v>42.02721890160709</v>
       </c>
       <c r="G22">
-        <v>3.710624012917434</v>
+        <v>2.074005143051806</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.52489425583058</v>
+        <v>18.44492061267548</v>
       </c>
       <c r="L22">
-        <v>11.08491875594793</v>
+        <v>9.703481772372122</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>23.33267549378715</v>
+        <v>16.29818584159709</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.87970968573459</v>
+        <v>23.54611700578891</v>
       </c>
       <c r="C23">
-        <v>6.247569842012543</v>
+        <v>7.673524804352855</v>
       </c>
       <c r="D23">
-        <v>8.155163484843559</v>
+        <v>5.270758325493778</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.13116192869425</v>
+        <v>41.45826469679956</v>
       </c>
       <c r="G23">
-        <v>3.71184667062434</v>
+        <v>2.078090994250979</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.45128251971737</v>
+        <v>18.06961508893525</v>
       </c>
       <c r="L23">
-        <v>11.06757332996164</v>
+        <v>9.567472959325181</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>23.34017738530985</v>
+        <v>16.31284816124098</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.47236510022248</v>
+        <v>21.75438972709295</v>
       </c>
       <c r="C24">
-        <v>6.080643913843383</v>
+        <v>7.21737796264074</v>
       </c>
       <c r="D24">
-        <v>8.173392618941339</v>
+        <v>5.404070802505656</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.73066995120331</v>
+        <v>39.3150330129389</v>
       </c>
       <c r="G24">
-        <v>3.716651936768087</v>
+        <v>2.093649320943051</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.17626362854267</v>
+        <v>16.60202744643561</v>
       </c>
       <c r="L24">
-        <v>11.00566048165589</v>
+        <v>9.051787626232409</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>23.37184105908701</v>
+        <v>16.38292894597555</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.04317373060362</v>
+        <v>19.83035990722056</v>
       </c>
       <c r="C25">
-        <v>5.891629103947133</v>
+        <v>6.704056816383935</v>
       </c>
       <c r="D25">
-        <v>8.193740864555108</v>
+        <v>5.545578882728389</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.32694696616655</v>
+        <v>37.02841775665024</v>
       </c>
       <c r="G25">
-        <v>3.722211439296397</v>
+        <v>2.11071972843026</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.88916606399816</v>
+        <v>14.91485893576307</v>
       </c>
       <c r="L25">
-        <v>10.94714130711607</v>
+        <v>8.494997123762154</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>23.41292543233441</v>
+        <v>16.48617749242691</v>
       </c>
       <c r="O25">
         <v>0</v>
